--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
@@ -438,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.220446049250313E-16</v>
+        <v>6.505707639270497E-08</v>
       </c>
       <c r="C2">
-        <v>4.505285033928885E-13</v>
+        <v>5.351274978693255E-14</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -464,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.954015320330797E-06</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.998401444325282E-15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.549516567451064E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.521301817852816E-08</v>
       </c>
       <c r="C4">
-        <v>3.506084311766244E-13</v>
+        <v>8.060219158778636E-14</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.667785260117682E-06</v>
+        <v>6.646301049251235E-05</v>
       </c>
       <c r="C5">
-        <v>3.528466852031897E-09</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.995204332975845E-14</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.073967204057169E-08</v>
+        <v>3.219224886663596E-11</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.362465695819992E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -620,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.48769885299771E-14</v>
+        <v>2.395753306849713E-08</v>
       </c>
       <c r="C9">
-        <v>1.266098337282529E-12</v>
+        <v>8.659739592076221E-15</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1737323924232266</v>
+        <v>0.74812683126579</v>
       </c>
       <c r="C10">
-        <v>0.06299619749593588</v>
+        <v>0.06208280264152122</v>
       </c>
       <c r="D10">
-        <v>0.3586808123233154</v>
+        <v>0.1341533866968256</v>
       </c>
       <c r="E10">
-        <v>0.02225260637424631</v>
+        <v>0.08882838250278091</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3.311586657472887E-05</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
@@ -401,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,143 +427,161 @@
         <v>5</v>
       </c>
       <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.505707639270497E-08</v>
+        <v>3.313112006964047E-09</v>
       </c>
       <c r="C2">
-        <v>5.351274978693255E-14</v>
+        <v>4.0082434704658E-08</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.692868067948439E-12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.176836406102666E-14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.757793993168889E-13</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.337374655463464E-12</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>2.819966482547898E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.954015320330797E-06</v>
+        <v>2.85649688822609E-05</v>
       </c>
       <c r="C3">
-        <v>1.998401444325282E-15</v>
+        <v>6.161926524583805E-09</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.567812546454661E-11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.33066907387547E-15</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5.255795798575491E-13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.168132423070347E-12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>4.019007349143067E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.521301817852816E-08</v>
+        <v>1.384601544529573E-09</v>
       </c>
       <c r="C4">
-        <v>8.060219158778636E-14</v>
+        <v>4.280528442812681E-08</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.389111048410996E-12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.13242748511766E-14</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.69784194983913E-13</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.165956220461339E-12</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>2.775557561562891E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.646301049251235E-05</v>
+        <v>0.008512010379494672</v>
       </c>
       <c r="C5">
-        <v>2.220446049250313E-16</v>
+        <v>3.285452576662351E-09</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.679012815562601E-12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4.514166818125886E-13</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6.008527009271347E-13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5.044409334686861E-12</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.84297022087776E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7.327471962526033E-15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.059631213884416E-07</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.344813149728452E-11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.069877519910278E-11</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>8.893108471852429E-12</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.838174553853605E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,100 +589,112 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.271116272822837E-08</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.030686812621752E-12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.020605904817785E-14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.209254918421721E-12</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4.530154029680489E-12</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>8.215650382226158E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.998401444325282E-14</v>
       </c>
       <c r="C8">
-        <v>3.219224886663596E-11</v>
+        <v>2.973109003434615E-08</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.34878774815661E-11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3.774758283725532E-14</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5.95967719618784E-13</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.734568210234102E-12</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>4.862776847858186E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.395753306849713E-08</v>
+        <v>2.547181449541469E-06</v>
       </c>
       <c r="C9">
-        <v>8.659739592076221E-15</v>
+        <v>5.560486515676644E-08</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5.720979245893432E-12</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.375877272697835E-14</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4.505285033928885E-13</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.3046009545169E-12</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>2.97539770599542E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.74812683126579</v>
+        <v>0.6067316732500676</v>
       </c>
       <c r="C10">
-        <v>0.06208280264152122</v>
+        <v>0.4022439599054577</v>
       </c>
       <c r="D10">
-        <v>0.1341533866968256</v>
+        <v>0.9856428175419636</v>
       </c>
       <c r="E10">
-        <v>0.08882838250278091</v>
+        <v>0.9066100980529868</v>
       </c>
       <c r="F10">
-        <v>3.311586657472887E-05</v>
+        <v>0.06755822882963347</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.050182246193799E-11</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.186013592364588E-10</v>
+      </c>
+      <c r="I10">
+        <v>1.362021606610142E-12</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.313112006964047E-09</v>
+        <v>1.145354048293079E-05</v>
       </c>
       <c r="C2">
-        <v>4.0082434704658E-08</v>
+        <v>0.0002816624389738731</v>
       </c>
       <c r="D2">
-        <v>1.692868067948439E-12</v>
+        <v>7.951149563867332E-06</v>
       </c>
       <c r="E2">
-        <v>1.176836406102666E-14</v>
+        <v>3.67921254418313E-06</v>
       </c>
       <c r="F2">
-        <v>2.757793993168889E-13</v>
+        <v>3.84664969921289E-06</v>
       </c>
       <c r="G2">
-        <v>1.337374655463464E-12</v>
+        <v>6.995991586045136E-08</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.897454239236268E-06</v>
       </c>
       <c r="I2">
-        <v>2.819966482547898E-14</v>
+        <v>3.083063053743729E-07</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.85649688822609E-05</v>
+        <v>0.0006333609825530662</v>
       </c>
       <c r="C3">
-        <v>6.161926524583805E-09</v>
+        <v>0.0001753018583174892</v>
       </c>
       <c r="D3">
-        <v>1.567812546454661E-11</v>
+        <v>1.97813312365902E-05</v>
       </c>
       <c r="E3">
-        <v>3.33066907387547E-15</v>
+        <v>2.69398390417841E-06</v>
       </c>
       <c r="F3">
-        <v>5.255795798575491E-13</v>
+        <v>4.946358789670313E-06</v>
       </c>
       <c r="G3">
-        <v>3.168132423070347E-12</v>
+        <v>5.328705965368385E-08</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.551046070699343E-06</v>
       </c>
       <c r="I3">
-        <v>4.019007349143067E-14</v>
+        <v>2.766339517457084E-07</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.384601544529573E-09</v>
+        <v>1.114891323972245E-05</v>
       </c>
       <c r="C4">
-        <v>4.280528442812681E-08</v>
+        <v>0.0002905397748014238</v>
       </c>
       <c r="D4">
-        <v>1.389111048410996E-12</v>
+        <v>7.46910221427477E-06</v>
       </c>
       <c r="E4">
-        <v>1.13242748511766E-14</v>
+        <v>3.619328720061432E-06</v>
       </c>
       <c r="F4">
-        <v>2.69784194983913E-13</v>
+        <v>3.738430381039493E-06</v>
       </c>
       <c r="G4">
-        <v>1.165956220461339E-12</v>
+        <v>7.13178889277799E-08</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.797337738812971E-06</v>
       </c>
       <c r="I4">
-        <v>2.775557561562891E-14</v>
+        <v>3.11740962821716E-07</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.008512010379494672</v>
+        <v>0.02059645052341619</v>
       </c>
       <c r="C5">
-        <v>3.285452576662351E-09</v>
+        <v>0.0001252677480902964</v>
       </c>
       <c r="D5">
-        <v>5.679012815562601E-12</v>
+        <v>1.045074495409359E-05</v>
       </c>
       <c r="E5">
-        <v>4.514166818125886E-13</v>
+        <v>9.38282756179909E-06</v>
       </c>
       <c r="F5">
-        <v>6.008527009271347E-13</v>
+        <v>4.360638136802208E-06</v>
       </c>
       <c r="G5">
-        <v>5.044409334686861E-12</v>
+        <v>1.090728460884094E-07</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.79388080918153E-06</v>
       </c>
       <c r="I5">
-        <v>1.84297022087776E-14</v>
+        <v>3.215595709704644E-07</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.327471962526033E-15</v>
+        <v>1.429661666385584E-06</v>
       </c>
       <c r="C6">
-        <v>1.059631213884416E-07</v>
+        <v>0.004764677455612487</v>
       </c>
       <c r="D6">
-        <v>1.344813149728452E-11</v>
+        <v>3.481112960557198E-06</v>
       </c>
       <c r="E6">
-        <v>4.440892098500626E-16</v>
+        <v>6.323707134603396E-06</v>
       </c>
       <c r="F6">
-        <v>1.069877519910278E-11</v>
+        <v>7.19375618696283E-06</v>
       </c>
       <c r="G6">
-        <v>8.893108471852429E-12</v>
+        <v>4.532758457465036E-08</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.809569839931861E-05</v>
       </c>
       <c r="I6">
-        <v>7.838174553853605E-14</v>
+        <v>2.772182927657241E-09</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.216664573064577E-09</v>
       </c>
       <c r="C7">
-        <v>2.271116272822837E-08</v>
+        <v>0.0001947137330660098</v>
       </c>
       <c r="D7">
-        <v>3.030686812621752E-12</v>
+        <v>8.846669779405403E-06</v>
       </c>
       <c r="E7">
-        <v>2.020605904817785E-14</v>
+        <v>4.38156400450751E-06</v>
       </c>
       <c r="F7">
-        <v>1.209254918421721E-12</v>
+        <v>6.792433822955246E-06</v>
       </c>
       <c r="G7">
-        <v>4.530154029680489E-12</v>
+        <v>6.345664749218827E-08</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.703087466617077E-06</v>
       </c>
       <c r="I7">
-        <v>8.215650382226158E-15</v>
+        <v>3.498223013487234E-07</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.998401444325282E-14</v>
+        <v>2.197108210477694E-06</v>
       </c>
       <c r="C8">
-        <v>2.973109003434615E-08</v>
+        <v>0.0001980130164593863</v>
       </c>
       <c r="D8">
-        <v>1.34878774815661E-11</v>
+        <v>1.189320252614756E-05</v>
       </c>
       <c r="E8">
-        <v>3.774758283725532E-14</v>
+        <v>4.590822228811575E-06</v>
       </c>
       <c r="F8">
-        <v>5.95967719618784E-13</v>
+        <v>4.814066743019652E-06</v>
       </c>
       <c r="G8">
-        <v>3.734568210234102E-12</v>
+        <v>5.756053234051706E-08</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.001396999433801E-05</v>
       </c>
       <c r="I8">
-        <v>4.862776847858186E-14</v>
+        <v>2.57681175064306E-07</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.547181449541469E-06</v>
+        <v>0.0003410168527335777</v>
       </c>
       <c r="C9">
-        <v>5.560486515676644E-08</v>
+        <v>0.0002999616353533963</v>
       </c>
       <c r="D9">
-        <v>5.720979245893432E-12</v>
+        <v>1.067804402676842E-05</v>
       </c>
       <c r="E9">
-        <v>2.375877272697835E-14</v>
+        <v>4.368371011587158E-06</v>
       </c>
       <c r="F9">
-        <v>4.505285033928885E-13</v>
+        <v>4.745522187876716E-06</v>
       </c>
       <c r="G9">
-        <v>2.3046009545169E-12</v>
+        <v>5.806658842644197E-08</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.821391913160781E-06</v>
       </c>
       <c r="I9">
-        <v>2.97539770599542E-14</v>
+        <v>2.905696052657447E-07</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6067316732500676</v>
+        <v>0.6499762046036415</v>
       </c>
       <c r="C10">
-        <v>0.4022439599054577</v>
+        <v>0.4297917795193822</v>
       </c>
       <c r="D10">
-        <v>0.9856428175419636</v>
+        <v>0.9856327348448009</v>
       </c>
       <c r="E10">
-        <v>0.9066100980529868</v>
+        <v>0.9050345930354642</v>
       </c>
       <c r="F10">
-        <v>0.06755822882963347</v>
+        <v>0.03362187756545043</v>
       </c>
       <c r="G10">
-        <v>2.050182246193799E-11</v>
+        <v>0.0007363391154457943</v>
       </c>
       <c r="H10">
-        <v>2.186013592364588E-10</v>
+        <v>0.0003857997176008876</v>
       </c>
       <c r="I10">
-        <v>1.362021606610142E-12</v>
+        <v>2.855354205744121E-06</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_3_matriz_pvalores.xlsx
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.197108210477694E-06</v>
+        <v>1.528800641636963E-09</v>
       </c>
       <c r="C8">
-        <v>0.0001980130164593863</v>
+        <v>0.0001969007947060231</v>
       </c>
       <c r="D8">
-        <v>1.189320252614756E-05</v>
+        <v>8.49495688237667E-06</v>
       </c>
       <c r="E8">
-        <v>4.590822228811575E-06</v>
+        <v>4.461552906676047E-06</v>
       </c>
       <c r="F8">
-        <v>4.814066743019652E-06</v>
+        <v>5.16519300819418E-06</v>
       </c>
       <c r="G8">
-        <v>5.756053234051706E-08</v>
+        <v>5.512877110369629E-08</v>
       </c>
       <c r="H8">
-        <v>1.001396999433801E-05</v>
+        <v>8.043497842891156E-06</v>
       </c>
       <c r="I8">
-        <v>2.57681175064306E-07</v>
+        <v>3.058914341824703E-07</v>
       </c>
     </row>
     <row r="9" spans="1:9">
